--- a/medicine/Mort/Cimetière_marin_de_Varengeville-sur-Mer/Cimetière_marin_de_Varengeville-sur-Mer.xlsx
+++ b/medicine/Mort/Cimetière_marin_de_Varengeville-sur-Mer/Cimetière_marin_de_Varengeville-sur-Mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_Varengeville-sur-Mer</t>
+          <t>Cimetière_marin_de_Varengeville-sur-Mer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière marin de Varengeville-sur-Mer est un cimetière marin se trouvant à Varengeville-sur-Mer. Il entoure l'église Saint-Valery.
-L'ensemble de l'église et du cimetière fait l’objet d’un classement au titre des monuments historiques depuis le 6 mars 1924[1].
-Le site est menacé de disparaître en raison de l'érosion de la falaise le long de laquelle il se trouve[2].
+L'ensemble de l'église et du cimetière fait l’objet d’un classement au titre des monuments historiques depuis le 6 mars 1924.
+Le site est menacé de disparaître en raison de l'érosion de la falaise le long de laquelle il se trouve.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_Varengeville-sur-Mer</t>
+          <t>Cimetière_marin_de_Varengeville-sur-Mer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Inhumés célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean Francis Auburtin (1866-1930), artiste décorateur
-Georges Braque (1882-1963), peintre. Il résida et travailla dans ce village normand. Sa tombe est décorée d'une mosaïque bleue figurant un oiseau[2].
+Georges Braque (1882-1963), peintre. Il résida et travailla dans ce village normand. Sa tombe est décorée d'une mosaïque bleue figurant un oiseau.
 Théodore de Broutelles (1842-1933), artiste peintre
 Michel Ciry (1919-2018) peintre
 Jacques-Antoine Danois (1780-1857), grognard de Napoléon Ier, né à Varengeville-sur-Mer
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_marin_de_Varengeville-sur-Mer</t>
+          <t>Cimetière_marin_de_Varengeville-sur-Mer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1974, le cimetière marin a servi de décor au film Le Retour du grand blond pour la scène de l'organisation des fausses funérailles.
 </t>
